--- a/assets/templates/import-organizations-template-admin.xlsx
+++ b/assets/templates/import-organizations-template-admin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remco\source\repos\blockframes\libs\ui\src\lib\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1957F2-515F-4A3E-9FD9-61CCBC796F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5780D-72CC-E94E-9FFE-0BD18FF6029F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-5840" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="304">
   <si>
     <t>Example</t>
   </si>
@@ -121,13 +122,832 @@
   <si>
     <t>Festival Access 
 ( example : dashboard, marketplace)</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>buyersRep</t>
+  </si>
+  <si>
+    <t>consulting</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>filmCommission</t>
+  </si>
+  <si>
+    <t>filmFestival</t>
+  </si>
+  <si>
+    <t>filmFund</t>
+  </si>
+  <si>
+    <t>filmLibrary</t>
+  </si>
+  <si>
+    <t>filmSchool</t>
+  </si>
+  <si>
+    <t>financialInstitution</t>
+  </si>
+  <si>
+    <t>inflight</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>intlSales</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>privateInvestor</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>talentAgency</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>tvBroadcast</t>
+  </si>
+  <si>
+    <t>theatricalExhibition</t>
+  </si>
+  <si>
+    <t>vodPlatform</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>TERRITORIES</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas (the)</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory (the)</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands (the)</t>
+  </si>
+  <si>
+    <t>Central African Republic (the)</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (the)</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros (the)</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>Congo (the)</t>
+  </si>
+  <si>
+    <t>Cook Islands (the)</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic (the)</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (the) [Malvinas]</t>
+  </si>
+  <si>
+    <t>Faroe Islands (the)</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories (the)</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia (the)</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See (the)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea (the Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t>Korea (the Republic of)</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands (the)</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Moldova (the Republic of)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands (the)</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger (the)</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands (the)</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines (the)</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation (the)</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan (the)</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic (the)</t>
+  </si>
+  <si>
+    <t>Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, the United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands (the)</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates (the)</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands (the)</t>
+  </si>
+  <si>
+    <t>United States of America (the)</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Western Sahara*</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Windward Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,8 +984,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +1087,14 @@
         <bgColor rgb="FF65C295"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -330,24 +1179,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,8 +1250,29 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +1357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,293 +1653,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" customWidth="1"/>
-    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="9" width="40.6640625" customWidth="1"/>
     <col min="10" max="13" width="29.6640625" customWidth="1"/>
-    <col min="14" max="21" width="29.796875" customWidth="1"/>
+    <col min="14" max="21" width="29.83203125" customWidth="1"/>
     <col min="22" max="1019" width="10.6640625" customWidth="1"/>
-    <col min="1020" max="1024" width="11.53125"/>
+    <col min="1020" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-    </row>
-    <row r="2" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-    </row>
-    <row r="5" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="1:50" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:50" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>1243546789</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>69001</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>836656565</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="13" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:50" ht="39.4" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" spans="1:50" ht="42" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1073,5 +1964,1620 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48A4060E-618E-6145-A552-4B77491BB3A0}">
+          <x14:formula1>
+            <xm:f>Feuil1!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D397</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3C2EC6D-F4F2-CF4E-BCB3-28F3D3B0878E}">
+          <x14:formula1>
+            <xm:f>Feuil1!$B$2:$B$253</xm:f>
+          </x14:formula1>
+          <xm:sqref>J11:J170</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBF92A-2D1B-EC4B-BD54-BA4B1A64ACA5}">
+  <dimension ref="A1:B256"/>
+  <sheetViews>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A96" s="21"/>
+      <c r="B96" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A97" s="21"/>
+      <c r="B97" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A99" s="21"/>
+      <c r="B99" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A100" s="21"/>
+      <c r="B100" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A102" s="21"/>
+      <c r="B102" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A103" s="21"/>
+      <c r="B103" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A104" s="21"/>
+      <c r="B104" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A106" s="21"/>
+      <c r="B106" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A107" s="21"/>
+      <c r="B107" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A108" s="21"/>
+      <c r="B108" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A109" s="21"/>
+      <c r="B109" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A110" s="21"/>
+      <c r="B110" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A111" s="21"/>
+      <c r="B111" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A112" s="21"/>
+      <c r="B112" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A114" s="21"/>
+      <c r="B114" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A115" s="21"/>
+      <c r="B115" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A117" s="21"/>
+      <c r="B117" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A118" s="21"/>
+      <c r="B118" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A119" s="21"/>
+      <c r="B119" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A120" s="21"/>
+      <c r="B120" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A121" s="21"/>
+      <c r="B121" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A122" s="21"/>
+      <c r="B122" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A124" s="21"/>
+      <c r="B124" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A125" s="21"/>
+      <c r="B125" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A126" s="21"/>
+      <c r="B126" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A127" s="21"/>
+      <c r="B127" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A128" s="21"/>
+      <c r="B128" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A129" s="21"/>
+      <c r="B129" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A130" s="21"/>
+      <c r="B130" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A131" s="21"/>
+      <c r="B131" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A132" s="21"/>
+      <c r="B132" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A133" s="21"/>
+      <c r="B133" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A134" s="21"/>
+      <c r="B134" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A135" s="21"/>
+      <c r="B135" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A136" s="21"/>
+      <c r="B136" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A137" s="21"/>
+      <c r="B137" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A138" s="21"/>
+      <c r="B138" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A139" s="21"/>
+      <c r="B139" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A140" s="21"/>
+      <c r="B140" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A141" s="21"/>
+      <c r="B141" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A142" s="21"/>
+      <c r="B142" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A143" s="21"/>
+      <c r="B143" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A144" s="21"/>
+      <c r="B144" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A145" s="21"/>
+      <c r="B145" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A146" s="21"/>
+      <c r="B146" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A147" s="21"/>
+      <c r="B147" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A148" s="21"/>
+      <c r="B148" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A149" s="21"/>
+      <c r="B149" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A150" s="21"/>
+      <c r="B150" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A151" s="21"/>
+      <c r="B151" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A152" s="21"/>
+      <c r="B152" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A153" s="21"/>
+      <c r="B153" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A154" s="21"/>
+      <c r="B154" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A155" s="21"/>
+      <c r="B155" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A156" s="21"/>
+      <c r="B156" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A157" s="21"/>
+      <c r="B157" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A158" s="21"/>
+      <c r="B158" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A159" s="21"/>
+      <c r="B159" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A160" s="21"/>
+      <c r="B160" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A161" s="21"/>
+      <c r="B161" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A162" s="21"/>
+      <c r="B162" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A163" s="21"/>
+      <c r="B163" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A164" s="21"/>
+      <c r="B164" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A165" s="21"/>
+      <c r="B165" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A166" s="21"/>
+      <c r="B166" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A167" s="21"/>
+      <c r="B167" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A168" s="21"/>
+      <c r="B168" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A169" s="21"/>
+      <c r="B169" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A170" s="21"/>
+      <c r="B170" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A171" s="21"/>
+      <c r="B171" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A172" s="21"/>
+      <c r="B172" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A173" s="21"/>
+      <c r="B173" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A174" s="21"/>
+      <c r="B174" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A175" s="21"/>
+      <c r="B175" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A176" s="21"/>
+      <c r="B176" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A177" s="21"/>
+      <c r="B177" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A178" s="21"/>
+      <c r="B178" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A179" s="21"/>
+      <c r="B179" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A180" s="21"/>
+      <c r="B180" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A181" s="21"/>
+      <c r="B181" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A182" s="21"/>
+      <c r="B182" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A183" s="21"/>
+      <c r="B183" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A184" s="21"/>
+      <c r="B184" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A185" s="21"/>
+      <c r="B185" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A186" s="21"/>
+      <c r="B186" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A187" s="21"/>
+      <c r="B187" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A188" s="21"/>
+      <c r="B188" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A189" s="21"/>
+      <c r="B189" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A190" s="21"/>
+      <c r="B190" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A191" s="21"/>
+      <c r="B191" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A192" s="21"/>
+      <c r="B192" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A193" s="21"/>
+      <c r="B193" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A194" s="21"/>
+      <c r="B194" s="21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A196" s="21"/>
+      <c r="B196" s="21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A197" s="21"/>
+      <c r="B197" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A198" s="21"/>
+      <c r="B198" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A199" s="21"/>
+      <c r="B199" s="21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A200" s="21"/>
+      <c r="B200" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A201" s="21"/>
+      <c r="B201" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A202" s="21"/>
+      <c r="B202" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A203" s="21"/>
+      <c r="B203" s="21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A204" s="21"/>
+      <c r="B204" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A205" s="21"/>
+      <c r="B205" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A206" s="21"/>
+      <c r="B206" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A207" s="21"/>
+      <c r="B207" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A208" s="21"/>
+      <c r="B208" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A209" s="21"/>
+      <c r="B209" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A210" s="21"/>
+      <c r="B210" s="21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A211" s="21"/>
+      <c r="B211" s="21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A212" s="21"/>
+      <c r="B212" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A213" s="21"/>
+      <c r="B213" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A214" s="21"/>
+      <c r="B214" s="21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A215" s="21"/>
+      <c r="B215" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A216" s="21"/>
+      <c r="B216" s="21" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A217" s="21"/>
+      <c r="B217" s="21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A218" s="21"/>
+      <c r="B218" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A219" s="21"/>
+      <c r="B219" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A220" s="21"/>
+      <c r="B220" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A221" s="21"/>
+      <c r="B221" s="21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A222" s="21"/>
+      <c r="B222" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A223" s="21"/>
+      <c r="B223" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A224" s="21"/>
+      <c r="B224" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A225" s="21"/>
+      <c r="B225" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A226" s="21"/>
+      <c r="B226" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A227" s="21"/>
+      <c r="B227" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A228" s="21"/>
+      <c r="B228" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A229" s="21"/>
+      <c r="B229" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A230" s="21"/>
+      <c r="B230" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A231" s="21"/>
+      <c r="B231" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A232" s="21"/>
+      <c r="B232" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A233" s="21"/>
+      <c r="B233" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A234" s="21"/>
+      <c r="B234" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A235" s="21"/>
+      <c r="B235" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A236" s="21"/>
+      <c r="B236" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A237" s="21"/>
+      <c r="B237" s="21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A238" s="21"/>
+      <c r="B238" s="21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A239" s="21"/>
+      <c r="B239" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A240" s="21"/>
+      <c r="B240" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A241" s="21"/>
+      <c r="B241" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A242" s="21"/>
+      <c r="B242" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A243" s="21"/>
+      <c r="B243" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A244" s="21"/>
+      <c r="B244" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A245" s="21"/>
+      <c r="B245" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A246" s="21"/>
+      <c r="B246" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A247" s="21"/>
+      <c r="B247" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A248" s="21"/>
+      <c r="B248" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A249" s="21"/>
+      <c r="B249" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A250" s="21"/>
+      <c r="B250" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A251" s="21"/>
+      <c r="B251" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A252" s="21"/>
+      <c r="B252" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A253" s="21"/>
+      <c r="B253" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A254" s="21"/>
+      <c r="B254" s="22"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="22"/>
+      <c r="B255" s="22"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/templates/import-organizations-template-admin.xlsx
+++ b/assets/templates/import-organizations-template-admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A5780D-72CC-E94E-9FFE-0BD18FF6029F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8C2C4-02EA-734D-AEB1-2C9ECE650292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="-5840" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="305">
   <si>
     <t>Example</t>
   </si>
@@ -941,6 +941,10 @@
   </si>
   <si>
     <t>Windward Islands</t>
+  </si>
+  <si>
+    <t>Financiers Access 
+( example : dashboard, marketplace)</t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1254,14 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,17 +1271,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1655,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1856,32 +1860,36 @@
       <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="O6" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
     </row>
     <row r="10" spans="1:50" ht="42" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
@@ -1925,6 +1933,9 @@
       </c>
       <c r="N10" s="14" t="s">
         <v>30</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -1942,17 +1953,17 @@
       <c r="AX10" s="1"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="L11" s="19"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="L12" s="19"/>
+      <c r="L12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1999,1583 +2010,1583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21" t="s">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21" t="s">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21" t="s">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21" t="s">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21" t="s">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21" t="s">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21" t="s">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21" t="s">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21" t="s">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21" t="s">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21" t="s">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21" t="s">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21" t="s">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21" t="s">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A102" s="21"/>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A103" s="21"/>
-      <c r="B103" s="21" t="s">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A104" s="21"/>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A105" s="21"/>
-      <c r="B105" s="21" t="s">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A106" s="21"/>
-      <c r="B106" s="21" t="s">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A107" s="21"/>
-      <c r="B107" s="21" t="s">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A108" s="21"/>
-      <c r="B108" s="21" t="s">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A109" s="21"/>
-      <c r="B109" s="21" t="s">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A110" s="21"/>
-      <c r="B110" s="21" t="s">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A111" s="21"/>
-      <c r="B111" s="21" t="s">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A112" s="21"/>
-      <c r="B112" s="21" t="s">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21" t="s">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A114" s="21"/>
-      <c r="B114" s="21" t="s">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21" t="s">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A116" s="21"/>
-      <c r="B116" s="21" t="s">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A117" s="21"/>
-      <c r="B117" s="21" t="s">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A118" s="21"/>
-      <c r="B118" s="21" t="s">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A119" s="21"/>
-      <c r="B119" s="21" t="s">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A120" s="21"/>
-      <c r="B120" s="21" t="s">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A121" s="21"/>
-      <c r="B121" s="21" t="s">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A122" s="21"/>
-      <c r="B122" s="21" t="s">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A123" s="21"/>
-      <c r="B123" s="21" t="s">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A124" s="21"/>
-      <c r="B124" s="21" t="s">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A125" s="21"/>
-      <c r="B125" s="21" t="s">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A126" s="21"/>
-      <c r="B126" s="21" t="s">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A127" s="21"/>
-      <c r="B127" s="21" t="s">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A128" s="21"/>
-      <c r="B128" s="21" t="s">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A129" s="21"/>
-      <c r="B129" s="21" t="s">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A130" s="21"/>
-      <c r="B130" s="21" t="s">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A131" s="21"/>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A132" s="21"/>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A133" s="21"/>
-      <c r="B133" s="21" t="s">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A134" s="21"/>
-      <c r="B134" s="21" t="s">
+      <c r="A134" s="17"/>
+      <c r="B134" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A135" s="21"/>
-      <c r="B135" s="21" t="s">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A136" s="21"/>
-      <c r="B136" s="21" t="s">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A137" s="21"/>
-      <c r="B137" s="21" t="s">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A138" s="21"/>
-      <c r="B138" s="21" t="s">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21" t="s">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A140" s="21"/>
-      <c r="B140" s="21" t="s">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A141" s="21"/>
-      <c r="B141" s="21" t="s">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A142" s="21"/>
-      <c r="B142" s="21" t="s">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A143" s="21"/>
-      <c r="B143" s="21" t="s">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A144" s="21"/>
-      <c r="B144" s="21" t="s">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A145" s="21"/>
-      <c r="B145" s="21" t="s">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21" t="s">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21" t="s">
+      <c r="A147" s="17"/>
+      <c r="B147" s="17" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21" t="s">
+      <c r="A148" s="17"/>
+      <c r="B148" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21" t="s">
+      <c r="A149" s="17"/>
+      <c r="B149" s="17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21" t="s">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21" t="s">
+      <c r="A151" s="17"/>
+      <c r="B151" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A152" s="21"/>
-      <c r="B152" s="21" t="s">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A153" s="21"/>
-      <c r="B153" s="21" t="s">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A154" s="21"/>
-      <c r="B154" s="21" t="s">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A155" s="21"/>
-      <c r="B155" s="21" t="s">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A156" s="21"/>
-      <c r="B156" s="21" t="s">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A157" s="21"/>
-      <c r="B157" s="21" t="s">
+      <c r="A157" s="17"/>
+      <c r="B157" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A158" s="21"/>
-      <c r="B158" s="21" t="s">
+      <c r="A158" s="17"/>
+      <c r="B158" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A159" s="21"/>
-      <c r="B159" s="21" t="s">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A160" s="21"/>
-      <c r="B160" s="21" t="s">
+      <c r="A160" s="17"/>
+      <c r="B160" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21" t="s">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21" t="s">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21" t="s">
+      <c r="A163" s="17"/>
+      <c r="B163" s="17" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21" t="s">
+      <c r="A164" s="17"/>
+      <c r="B164" s="17" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21" t="s">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A166" s="21"/>
-      <c r="B166" s="21" t="s">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A167" s="21"/>
-      <c r="B167" s="21" t="s">
+      <c r="A167" s="17"/>
+      <c r="B167" s="17" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A168" s="21"/>
-      <c r="B168" s="21" t="s">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A169" s="21"/>
-      <c r="B169" s="21" t="s">
+      <c r="A169" s="17"/>
+      <c r="B169" s="17" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A170" s="21"/>
-      <c r="B170" s="21" t="s">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A171" s="21"/>
-      <c r="B171" s="21" t="s">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A172" s="21"/>
-      <c r="B172" s="21" t="s">
+      <c r="A172" s="17"/>
+      <c r="B172" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A173" s="21"/>
-      <c r="B173" s="21" t="s">
+      <c r="A173" s="17"/>
+      <c r="B173" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21" t="s">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A175" s="21"/>
-      <c r="B175" s="21" t="s">
+      <c r="A175" s="17"/>
+      <c r="B175" s="17" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A176" s="21"/>
-      <c r="B176" s="21" t="s">
+      <c r="A176" s="17"/>
+      <c r="B176" s="17" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A177" s="21"/>
-      <c r="B177" s="21" t="s">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A178" s="21"/>
-      <c r="B178" s="21" t="s">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A179" s="21"/>
-      <c r="B179" s="21" t="s">
+      <c r="A179" s="17"/>
+      <c r="B179" s="17" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A180" s="21"/>
-      <c r="B180" s="21" t="s">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A181" s="21"/>
-      <c r="B181" s="21" t="s">
+      <c r="A181" s="17"/>
+      <c r="B181" s="17" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A182" s="21"/>
-      <c r="B182" s="21" t="s">
+      <c r="A182" s="17"/>
+      <c r="B182" s="17" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A183" s="21"/>
-      <c r="B183" s="21" t="s">
+      <c r="A183" s="17"/>
+      <c r="B183" s="17" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A184" s="21"/>
-      <c r="B184" s="21" t="s">
+      <c r="A184" s="17"/>
+      <c r="B184" s="17" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A185" s="21"/>
-      <c r="B185" s="21" t="s">
+      <c r="A185" s="17"/>
+      <c r="B185" s="17" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A186" s="21"/>
-      <c r="B186" s="21" t="s">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A187" s="21"/>
-      <c r="B187" s="21" t="s">
+      <c r="A187" s="17"/>
+      <c r="B187" s="17" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A188" s="21"/>
-      <c r="B188" s="21" t="s">
+      <c r="A188" s="17"/>
+      <c r="B188" s="17" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A189" s="21"/>
-      <c r="B189" s="21" t="s">
+      <c r="A189" s="17"/>
+      <c r="B189" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A190" s="21"/>
-      <c r="B190" s="21" t="s">
+      <c r="A190" s="17"/>
+      <c r="B190" s="17" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21" t="s">
+      <c r="A191" s="17"/>
+      <c r="B191" s="17" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A192" s="21"/>
-      <c r="B192" s="21" t="s">
+      <c r="A192" s="17"/>
+      <c r="B192" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A193" s="21"/>
-      <c r="B193" s="21" t="s">
+      <c r="A193" s="17"/>
+      <c r="B193" s="17" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A194" s="21"/>
-      <c r="B194" s="21" t="s">
+      <c r="A194" s="17"/>
+      <c r="B194" s="17" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A195" s="21"/>
-      <c r="B195" s="21" t="s">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A196" s="21"/>
-      <c r="B196" s="21" t="s">
+      <c r="A196" s="17"/>
+      <c r="B196" s="17" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A197" s="21"/>
-      <c r="B197" s="21" t="s">
+      <c r="A197" s="17"/>
+      <c r="B197" s="17" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A198" s="21"/>
-      <c r="B198" s="21" t="s">
+      <c r="A198" s="17"/>
+      <c r="B198" s="17" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A199" s="21"/>
-      <c r="B199" s="21" t="s">
+      <c r="A199" s="17"/>
+      <c r="B199" s="17" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A200" s="21"/>
-      <c r="B200" s="21" t="s">
+      <c r="A200" s="17"/>
+      <c r="B200" s="17" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A201" s="21"/>
-      <c r="B201" s="21" t="s">
+      <c r="A201" s="17"/>
+      <c r="B201" s="17" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A202" s="21"/>
-      <c r="B202" s="21" t="s">
+      <c r="A202" s="17"/>
+      <c r="B202" s="17" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A203" s="21"/>
-      <c r="B203" s="21" t="s">
+      <c r="A203" s="17"/>
+      <c r="B203" s="17" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A204" s="21"/>
-      <c r="B204" s="21" t="s">
+      <c r="A204" s="17"/>
+      <c r="B204" s="17" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A205" s="21"/>
-      <c r="B205" s="21" t="s">
+      <c r="A205" s="17"/>
+      <c r="B205" s="17" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A206" s="21"/>
-      <c r="B206" s="21" t="s">
+      <c r="A206" s="17"/>
+      <c r="B206" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A207" s="21"/>
-      <c r="B207" s="21" t="s">
+      <c r="A207" s="17"/>
+      <c r="B207" s="17" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A208" s="21"/>
-      <c r="B208" s="21" t="s">
+      <c r="A208" s="17"/>
+      <c r="B208" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A209" s="21"/>
-      <c r="B209" s="21" t="s">
+      <c r="A209" s="17"/>
+      <c r="B209" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A210" s="21"/>
-      <c r="B210" s="21" t="s">
+      <c r="A210" s="17"/>
+      <c r="B210" s="17" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A211" s="21"/>
-      <c r="B211" s="21" t="s">
+      <c r="A211" s="17"/>
+      <c r="B211" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A212" s="21"/>
-      <c r="B212" s="21" t="s">
+      <c r="A212" s="17"/>
+      <c r="B212" s="17" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A213" s="21"/>
-      <c r="B213" s="21" t="s">
+      <c r="A213" s="17"/>
+      <c r="B213" s="17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A214" s="21"/>
-      <c r="B214" s="21" t="s">
+      <c r="A214" s="17"/>
+      <c r="B214" s="17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A215" s="21"/>
-      <c r="B215" s="21" t="s">
+      <c r="A215" s="17"/>
+      <c r="B215" s="17" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A216" s="21"/>
-      <c r="B216" s="21" t="s">
+      <c r="A216" s="17"/>
+      <c r="B216" s="17" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A217" s="21"/>
-      <c r="B217" s="21" t="s">
+      <c r="A217" s="17"/>
+      <c r="B217" s="17" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A218" s="21"/>
-      <c r="B218" s="21" t="s">
+      <c r="A218" s="17"/>
+      <c r="B218" s="17" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A219" s="21"/>
-      <c r="B219" s="21" t="s">
+      <c r="A219" s="17"/>
+      <c r="B219" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A220" s="21"/>
-      <c r="B220" s="21" t="s">
+      <c r="A220" s="17"/>
+      <c r="B220" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A221" s="21"/>
-      <c r="B221" s="21" t="s">
+      <c r="A221" s="17"/>
+      <c r="B221" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A222" s="21"/>
-      <c r="B222" s="21" t="s">
+      <c r="A222" s="17"/>
+      <c r="B222" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A223" s="21"/>
-      <c r="B223" s="21" t="s">
+      <c r="A223" s="17"/>
+      <c r="B223" s="17" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A224" s="21"/>
-      <c r="B224" s="21" t="s">
+      <c r="A224" s="17"/>
+      <c r="B224" s="17" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A225" s="21"/>
-      <c r="B225" s="21" t="s">
+      <c r="A225" s="17"/>
+      <c r="B225" s="17" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A226" s="21"/>
-      <c r="B226" s="21" t="s">
+      <c r="A226" s="17"/>
+      <c r="B226" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A227" s="21"/>
-      <c r="B227" s="21" t="s">
+      <c r="A227" s="17"/>
+      <c r="B227" s="17" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A228" s="21"/>
-      <c r="B228" s="21" t="s">
+      <c r="A228" s="17"/>
+      <c r="B228" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A229" s="21"/>
-      <c r="B229" s="21" t="s">
+      <c r="A229" s="17"/>
+      <c r="B229" s="17" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A230" s="21"/>
-      <c r="B230" s="21" t="s">
+      <c r="A230" s="17"/>
+      <c r="B230" s="17" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A231" s="21"/>
-      <c r="B231" s="21" t="s">
+      <c r="A231" s="17"/>
+      <c r="B231" s="17" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A232" s="21"/>
-      <c r="B232" s="21" t="s">
+      <c r="A232" s="17"/>
+      <c r="B232" s="17" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A233" s="21"/>
-      <c r="B233" s="21" t="s">
+      <c r="A233" s="17"/>
+      <c r="B233" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A234" s="21"/>
-      <c r="B234" s="21" t="s">
+      <c r="A234" s="17"/>
+      <c r="B234" s="17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A235" s="21"/>
-      <c r="B235" s="21" t="s">
+      <c r="A235" s="17"/>
+      <c r="B235" s="17" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A236" s="21"/>
-      <c r="B236" s="21" t="s">
+      <c r="A236" s="17"/>
+      <c r="B236" s="17" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A237" s="21"/>
-      <c r="B237" s="21" t="s">
+      <c r="A237" s="17"/>
+      <c r="B237" s="17" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A238" s="21"/>
-      <c r="B238" s="21" t="s">
+      <c r="A238" s="17"/>
+      <c r="B238" s="17" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A239" s="21"/>
-      <c r="B239" s="21" t="s">
+      <c r="A239" s="17"/>
+      <c r="B239" s="17" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A240" s="21"/>
-      <c r="B240" s="21" t="s">
+      <c r="A240" s="17"/>
+      <c r="B240" s="17" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A241" s="21"/>
-      <c r="B241" s="21" t="s">
+      <c r="A241" s="17"/>
+      <c r="B241" s="17" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A242" s="21"/>
-      <c r="B242" s="21" t="s">
+      <c r="A242" s="17"/>
+      <c r="B242" s="17" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A243" s="21"/>
-      <c r="B243" s="21" t="s">
+      <c r="A243" s="17"/>
+      <c r="B243" s="17" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A244" s="21"/>
-      <c r="B244" s="21" t="s">
+      <c r="A244" s="17"/>
+      <c r="B244" s="17" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A245" s="21"/>
-      <c r="B245" s="21" t="s">
+      <c r="A245" s="17"/>
+      <c r="B245" s="17" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A246" s="21"/>
-      <c r="B246" s="21" t="s">
+      <c r="A246" s="17"/>
+      <c r="B246" s="17" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A247" s="21"/>
-      <c r="B247" s="21" t="s">
+      <c r="A247" s="17"/>
+      <c r="B247" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A248" s="21"/>
-      <c r="B248" s="21" t="s">
+      <c r="A248" s="17"/>
+      <c r="B248" s="17" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A249" s="21"/>
-      <c r="B249" s="21" t="s">
+      <c r="A249" s="17"/>
+      <c r="B249" s="17" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A250" s="21"/>
-      <c r="B250" s="21" t="s">
+      <c r="A250" s="17"/>
+      <c r="B250" s="17" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A251" s="21"/>
-      <c r="B251" s="21" t="s">
+      <c r="A251" s="17"/>
+      <c r="B251" s="17" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A252" s="21"/>
-      <c r="B252" s="21" t="s">
+      <c r="A252" s="17"/>
+      <c r="B252" s="17" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A253" s="21"/>
-      <c r="B253" s="21" t="s">
+      <c r="A253" s="17"/>
+      <c r="B253" s="17" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.2">
-      <c r="A254" s="21"/>
-      <c r="B254" s="22"/>
+      <c r="A254" s="17"/>
+      <c r="B254" s="18"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A255" s="22"/>
-      <c r="B255" s="22"/>
+      <c r="A255" s="18"/>
+      <c r="B255" s="18"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A256" s="22"/>
+      <c r="A256" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/templates/import-organizations-template-admin.xlsx
+++ b/assets/templates/import-organizations-template-admin.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remco\source\repos\blockframes\libs\ui\src\lib\assets\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1957F2-515F-4A3E-9FD9-61CCBC796F39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A8C2C4-02EA-734D-AEB1-2C9ECE650292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25600" yWindow="-5840" windowWidth="25600" windowHeight="28300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="305">
   <si>
     <t>Example</t>
   </si>
@@ -120,6 +121,829 @@
   </si>
   <si>
     <t>Festival Access 
+( example : dashboard, marketplace)</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>buyersRep</t>
+  </si>
+  <si>
+    <t>consulting</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>filmCommission</t>
+  </si>
+  <si>
+    <t>filmFestival</t>
+  </si>
+  <si>
+    <t>filmFund</t>
+  </si>
+  <si>
+    <t>filmLibrary</t>
+  </si>
+  <si>
+    <t>filmSchool</t>
+  </si>
+  <si>
+    <t>financialInstitution</t>
+  </si>
+  <si>
+    <t>inflight</t>
+  </si>
+  <si>
+    <t>institution</t>
+  </si>
+  <si>
+    <t>intlSales</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>privateInvestor</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>talentAgency</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>tvBroadcast</t>
+  </si>
+  <si>
+    <t>theatricalExhibition</t>
+  </si>
+  <si>
+    <t>vodPlatform</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>TERRITORIES</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas (the)</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia (Plurinational State of)</t>
+  </si>
+  <si>
+    <t>Bonaire, Sint Eustatius and Saba</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory (the)</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands (the)</t>
+  </si>
+  <si>
+    <t>Central African Republic (the)</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands (the)</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros (the)</t>
+  </si>
+  <si>
+    <t>Congo (the Democratic Republic of the)</t>
+  </si>
+  <si>
+    <t>Congo (the)</t>
+  </si>
+  <si>
+    <t>Cook Islands (the)</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curaçao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic (the)</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (the) [Malvinas]</t>
+  </si>
+  <si>
+    <t>Faroe Islands (the)</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories (the)</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia (the)</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See (the)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea (the Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t>Korea (the Republic of)</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic (the)</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands (the)</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Moldova (the Republic of)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands (the)</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger (the)</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands (the)</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestine, State of</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines (the)</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation (the)</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan (the)</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic (the)</t>
+  </si>
+  <si>
+    <t>Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania, the United Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands (the)</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates (the)</t>
+  </si>
+  <si>
+    <t>United Kingdom of Great Britain and Northern Ireland (the)</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands (the)</t>
+  </si>
+  <si>
+    <t>United States of America (the)</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Western Sahara*</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Åland Islands</t>
+  </si>
+  <si>
+    <t>Windward Islands</t>
+  </si>
+  <si>
+    <t>Financiers Access 
 ( example : dashboard, marketplace)</t>
   </si>
 </sst>
@@ -127,7 +951,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -164,8 +988,31 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +1091,14 @@
         <bgColor rgb="FF65C295"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B5394"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -330,24 +1183,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,8 +1254,29 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +1361,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,300 +1657,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.796875" customWidth="1"/>
-    <col min="3" max="3" width="36.1328125" customWidth="1"/>
-    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" customWidth="1"/>
     <col min="6" max="7" width="29.33203125" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="9" width="40.6640625" customWidth="1"/>
     <col min="10" max="13" width="29.6640625" customWidth="1"/>
-    <col min="14" max="21" width="29.796875" customWidth="1"/>
+    <col min="14" max="21" width="29.83203125" customWidth="1"/>
     <col min="22" max="1019" width="10.6640625" customWidth="1"/>
-    <col min="1020" max="1024" width="11.53125"/>
+    <col min="1020" max="1024" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-    </row>
-    <row r="2" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-    </row>
-    <row r="4" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-    </row>
-    <row r="5" spans="1:50" ht="13.15" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="1:50" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:50" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>1243546789</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>69001</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="6">
         <v>836656565</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" ht="13.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="O6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="13" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:50" ht="39.4" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" spans="1:50" ht="42" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
+      <c r="O10" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="L12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:K9"/>
-    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1073,5 +1975,1620 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{48A4060E-618E-6145-A552-4B77491BB3A0}">
+          <x14:formula1>
+            <xm:f>Feuil1!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>D11:D397</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F3C2EC6D-F4F2-CF4E-BCB3-28F3D3B0878E}">
+          <x14:formula1>
+            <xm:f>Feuil1!$B$2:$B$253</xm:f>
+          </x14:formula1>
+          <xm:sqref>J11:J170</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDBF92A-2D1B-EC4B-BD54-BA4B1A64ACA5}">
+  <dimension ref="A1:B256"/>
+  <sheetViews>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A125" s="17"/>
+      <c r="B125" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A127" s="17"/>
+      <c r="B127" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A131" s="17"/>
+      <c r="B131" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A134" s="17"/>
+      <c r="B134" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A136" s="17"/>
+      <c r="B136" s="17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A145" s="17"/>
+      <c r="B145" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A146" s="17"/>
+      <c r="B146" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A147" s="17"/>
+      <c r="B147" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A148" s="17"/>
+      <c r="B148" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A149" s="17"/>
+      <c r="B149" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A151" s="17"/>
+      <c r="B151" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A155" s="17"/>
+      <c r="B155" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A157" s="17"/>
+      <c r="B157" s="17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A158" s="17"/>
+      <c r="B158" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A160" s="17"/>
+      <c r="B160" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A163" s="17"/>
+      <c r="B163" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A164" s="17"/>
+      <c r="B164" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A167" s="17"/>
+      <c r="B167" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A169" s="17"/>
+      <c r="B169" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A170" s="17"/>
+      <c r="B170" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A172" s="17"/>
+      <c r="B172" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A173" s="17"/>
+      <c r="B173" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A175" s="17"/>
+      <c r="B175" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A176" s="17"/>
+      <c r="B176" s="17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A179" s="17"/>
+      <c r="B179" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A181" s="17"/>
+      <c r="B181" s="17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A182" s="17"/>
+      <c r="B182" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A183" s="17"/>
+      <c r="B183" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A184" s="17"/>
+      <c r="B184" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A185" s="17"/>
+      <c r="B185" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A187" s="17"/>
+      <c r="B187" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A188" s="17"/>
+      <c r="B188" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A189" s="17"/>
+      <c r="B189" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A190" s="17"/>
+      <c r="B190" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A191" s="17"/>
+      <c r="B191" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A192" s="17"/>
+      <c r="B192" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A193" s="17"/>
+      <c r="B193" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A194" s="17"/>
+      <c r="B194" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A196" s="17"/>
+      <c r="B196" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A197" s="17"/>
+      <c r="B197" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A198" s="17"/>
+      <c r="B198" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A199" s="17"/>
+      <c r="B199" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A200" s="17"/>
+      <c r="B200" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A201" s="17"/>
+      <c r="B201" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A202" s="17"/>
+      <c r="B202" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A203" s="17"/>
+      <c r="B203" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A204" s="17"/>
+      <c r="B204" s="17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A205" s="17"/>
+      <c r="B205" s="17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A206" s="17"/>
+      <c r="B206" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A207" s="17"/>
+      <c r="B207" s="17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A208" s="17"/>
+      <c r="B208" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A209" s="17"/>
+      <c r="B209" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A210" s="17"/>
+      <c r="B210" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A211" s="17"/>
+      <c r="B211" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A212" s="17"/>
+      <c r="B212" s="17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A213" s="17"/>
+      <c r="B213" s="17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A214" s="17"/>
+      <c r="B214" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A215" s="17"/>
+      <c r="B215" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A216" s="17"/>
+      <c r="B216" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A217" s="17"/>
+      <c r="B217" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A218" s="17"/>
+      <c r="B218" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A219" s="17"/>
+      <c r="B219" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A220" s="17"/>
+      <c r="B220" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A221" s="17"/>
+      <c r="B221" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A222" s="17"/>
+      <c r="B222" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A223" s="17"/>
+      <c r="B223" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A224" s="17"/>
+      <c r="B224" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A225" s="17"/>
+      <c r="B225" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A226" s="17"/>
+      <c r="B226" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A227" s="17"/>
+      <c r="B227" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A228" s="17"/>
+      <c r="B228" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A229" s="17"/>
+      <c r="B229" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A230" s="17"/>
+      <c r="B230" s="17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A231" s="17"/>
+      <c r="B231" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A232" s="17"/>
+      <c r="B232" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A233" s="17"/>
+      <c r="B233" s="17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A234" s="17"/>
+      <c r="B234" s="17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A235" s="17"/>
+      <c r="B235" s="17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A236" s="17"/>
+      <c r="B236" s="17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A237" s="17"/>
+      <c r="B237" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A238" s="17"/>
+      <c r="B238" s="17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A239" s="17"/>
+      <c r="B239" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A240" s="17"/>
+      <c r="B240" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A241" s="17"/>
+      <c r="B241" s="17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A242" s="17"/>
+      <c r="B242" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A243" s="17"/>
+      <c r="B243" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A244" s="17"/>
+      <c r="B244" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A245" s="17"/>
+      <c r="B245" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A246" s="17"/>
+      <c r="B246" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A247" s="17"/>
+      <c r="B247" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A248" s="17"/>
+      <c r="B248" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A249" s="17"/>
+      <c r="B249" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A250" s="17"/>
+      <c r="B250" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A251" s="17"/>
+      <c r="B251" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A252" s="17"/>
+      <c r="B252" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A253" s="17"/>
+      <c r="B253" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.2">
+      <c r="A254" s="17"/>
+      <c r="B254" s="18"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A255" s="18"/>
+      <c r="B255" s="18"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A256" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>